--- a/QuanLyMoiTruong.WebApp/Assets/Template/Mau1.2_ChiTieuBaoCaoVeMoiTruongKCN.xlsx
+++ b/QuanLyMoiTruong.WebApp/Assets/Template/Mau1.2_ChiTieuBaoCaoVeMoiTruongKCN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNPT\QuanLyThueDat\QuanLyMoiTruong\QuanLyMoiTruong.WebApp\Assets\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A54C13-6DC7-45D5-8990-1C1760A15094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9097F61-7F4C-48C0-9097-A1DD57D17A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -297,22 +297,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -618,85 +609,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:P9"/>
+  <dimension ref="A2:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="6" t="s">
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="9" t="s">
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="90" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
       <c r="I4" s="2" t="s">
         <v>13</v>
       </c>
@@ -715,8 +706,8 @@
       <c r="N4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -767,78 +758,6 @@
       <c r="P5" s="2">
         <v>-16</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="13">
